--- a/Group_12.xlsx
+++ b/Group_12.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimvanerp/Documents/GitHub/AirlinePlanningOptimization/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E79E6C-E194-F648-A1B2-D3D30E6D2C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="29640" windowHeight="18200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
     <sheet name="Itineraries" sheetId="2" r:id="rId2"/>
     <sheet name="Recapture" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -978,8 +984,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,17 +1032,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1074,7 +1088,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1108,6 +1122,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1142,9 +1157,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1317,17 +1333,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="13.7109375" customWidth="1"/>
+    <col min="1" max="16" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
@@ -1347,7 +1365,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1385,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1387,7 +1405,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1407,7 +1425,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1427,7 +1445,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1447,7 +1465,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1467,7 +1485,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1487,7 +1505,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1507,7 +1525,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1527,7 +1545,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1547,7 +1565,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1567,7 +1585,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1587,7 +1605,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1607,7 +1625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +1645,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1647,7 +1665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1667,7 +1685,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1687,7 +1705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1707,7 +1725,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -1727,7 +1745,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1747,7 +1765,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1767,7 +1785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1787,7 +1805,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -1807,7 +1825,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -1827,7 +1845,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -1847,7 +1865,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -1867,7 +1885,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -1887,7 +1905,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -1907,7 +1925,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -1927,7 +1945,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -1947,7 +1965,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -1967,7 +1985,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1987,7 +2005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -2007,7 +2025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -2027,7 +2045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
@@ -2047,7 +2065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -2067,7 +2085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -2087,7 +2105,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -2107,7 +2125,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -2127,7 +2145,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -2147,7 +2165,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -2187,7 +2205,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -2207,7 +2225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
@@ -2227,7 +2245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
@@ -2247,7 +2265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>58</v>
       </c>
@@ -2267,7 +2285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>59</v>
       </c>
@@ -2287,7 +2305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
@@ -2307,7 +2325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
@@ -2327,7 +2345,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>62</v>
       </c>
@@ -2347,7 +2365,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>63</v>
       </c>
@@ -2367,7 +2385,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>64</v>
       </c>
@@ -2387,7 +2405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>65</v>
       </c>
@@ -2407,7 +2425,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2427,7 +2445,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>67</v>
       </c>
@@ -2447,7 +2465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>68</v>
       </c>
@@ -2467,7 +2485,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>69</v>
       </c>
@@ -2487,7 +2505,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>70</v>
       </c>
@@ -2507,7 +2525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>71</v>
       </c>
@@ -2527,7 +2545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>72</v>
       </c>
@@ -2547,7 +2565,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>73</v>
       </c>
@@ -2567,7 +2585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>74</v>
       </c>
@@ -2587,7 +2605,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>75</v>
       </c>
@@ -2607,7 +2625,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>76</v>
       </c>
@@ -2627,7 +2645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>77</v>
       </c>
@@ -2647,7 +2665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>79</v>
       </c>
@@ -2667,7 +2685,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>81</v>
       </c>
@@ -2687,7 +2705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>83</v>
       </c>
@@ -2707,7 +2725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
@@ -2727,7 +2745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>85</v>
       </c>
@@ -2747,7 +2765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>86</v>
       </c>
@@ -2767,7 +2785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>87</v>
       </c>
@@ -2787,7 +2805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>88</v>
       </c>
@@ -2807,7 +2825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>89</v>
       </c>
@@ -2827,7 +2845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>90</v>
       </c>
@@ -2847,7 +2865,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>91</v>
       </c>
@@ -2867,7 +2885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>93</v>
       </c>
@@ -2887,7 +2905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -2907,7 +2925,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -2927,7 +2945,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>97</v>
       </c>
@@ -2947,7 +2965,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>99</v>
       </c>
@@ -2967,7 +2985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>100</v>
       </c>
@@ -2987,7 +3005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>101</v>
       </c>
@@ -3007,7 +3025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>102</v>
       </c>
@@ -3027,7 +3045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>103</v>
       </c>
@@ -3047,7 +3065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>104</v>
       </c>
@@ -3067,7 +3085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>105</v>
       </c>
@@ -3087,7 +3105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>106</v>
       </c>
@@ -3107,7 +3125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>108</v>
       </c>
@@ -3127,7 +3145,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>110</v>
       </c>
@@ -3147,7 +3165,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>111</v>
       </c>
@@ -3167,7 +3185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>113</v>
       </c>
@@ -3187,7 +3205,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>115</v>
       </c>
@@ -3207,7 +3225,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>116</v>
       </c>
@@ -3227,7 +3245,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>117</v>
       </c>
@@ -3247,7 +3265,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>118</v>
       </c>
@@ -3267,7 +3285,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>119</v>
       </c>
@@ -3287,7 +3305,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>120</v>
       </c>
@@ -3307,7 +3325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>121</v>
       </c>
@@ -3327,7 +3345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>122</v>
       </c>
@@ -3347,7 +3365,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>123</v>
       </c>
@@ -3367,7 +3385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>124</v>
       </c>
@@ -3387,7 +3405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>125</v>
       </c>
@@ -3407,7 +3425,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>126</v>
       </c>
@@ -3427,7 +3445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>127</v>
       </c>
@@ -3447,7 +3465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>128</v>
       </c>
@@ -3467,7 +3485,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>129</v>
       </c>
@@ -3487,7 +3505,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>130</v>
       </c>
@@ -3507,7 +3525,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>131</v>
       </c>
@@ -3527,7 +3545,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>132</v>
       </c>
@@ -3547,7 +3565,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>133</v>
       </c>
@@ -3567,7 +3585,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>134</v>
       </c>
@@ -3587,7 +3605,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>135</v>
       </c>
@@ -3607,7 +3625,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>136</v>
       </c>
@@ -3627,7 +3645,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>137</v>
       </c>
@@ -3647,7 +3665,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>138</v>
       </c>
@@ -3667,7 +3685,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>139</v>
       </c>
@@ -3687,7 +3705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>140</v>
       </c>
@@ -3707,7 +3725,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>141</v>
       </c>
@@ -3727,7 +3745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>142</v>
       </c>
@@ -3747,7 +3765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>143</v>
       </c>
@@ -3767,7 +3785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>144</v>
       </c>
@@ -3787,7 +3805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>145</v>
       </c>
@@ -3807,7 +3825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>146</v>
       </c>
@@ -3827,7 +3845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>147</v>
       </c>
@@ -3847,7 +3865,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -3867,7 +3885,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -3887,7 +3905,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>150</v>
       </c>
@@ -3907,7 +3925,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>151</v>
       </c>
@@ -3927,7 +3945,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>152</v>
       </c>
@@ -3947,7 +3965,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>153</v>
       </c>
@@ -3967,7 +3985,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>154</v>
       </c>
@@ -3987,7 +4005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>155</v>
       </c>
@@ -4007,7 +4025,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>156</v>
       </c>
@@ -4027,7 +4045,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>157</v>
       </c>
@@ -4047,7 +4065,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>158</v>
       </c>
@@ -4067,7 +4085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>159</v>
       </c>
@@ -4087,7 +4105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>160</v>
       </c>
@@ -4113,17 +4131,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G406"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="13.7109375" customWidth="1"/>
+    <col min="1" max="16" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4146,7 +4166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -4167,7 +4187,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4188,7 +4208,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4209,7 +4229,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4230,7 +4250,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4251,7 +4271,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4272,7 +4292,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4293,7 +4313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4314,7 +4334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4335,7 +4355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4356,7 +4376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4377,7 +4397,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4398,7 +4418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4419,7 +4439,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4440,7 +4460,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4461,7 +4481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -4482,7 +4502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -4503,7 +4523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -4524,7 +4544,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -4545,7 +4565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -4566,7 +4586,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -4587,7 +4607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -4608,7 +4628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -4629,7 +4649,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -4650,7 +4670,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -4671,7 +4691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -4692,7 +4712,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -4713,7 +4733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -4734,7 +4754,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -4755,7 +4775,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -4776,7 +4796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -4797,7 +4817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -4818,7 +4838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -4839,7 +4859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -4860,7 +4880,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -4881,7 +4901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -4902,7 +4922,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -4923,7 +4943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -4944,7 +4964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -4965,7 +4985,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -4986,7 +5006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -5007,7 +5027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -5028,7 +5048,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -5049,7 +5069,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -5070,7 +5090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -5091,7 +5111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -5112,7 +5132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -5133,7 +5153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -5154,7 +5174,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -5175,7 +5195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -5196,7 +5216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -5217,7 +5237,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -5238,7 +5258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -5259,7 +5279,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -5280,7 +5300,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -5301,7 +5321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -5322,7 +5342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -5343,7 +5363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -5364,7 +5384,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -5385,7 +5405,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -5406,7 +5426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -5427,7 +5447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -5448,7 +5468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -5469,7 +5489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -5490,7 +5510,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -5511,7 +5531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -5532,7 +5552,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -5553,7 +5573,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -5574,7 +5594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -5595,7 +5615,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -5616,7 +5636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -5637,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -5658,7 +5678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -5679,7 +5699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -5700,7 +5720,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -5721,7 +5741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -5742,7 +5762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -5763,7 +5783,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -5784,7 +5804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -5805,7 +5825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -5826,7 +5846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -5847,7 +5867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -5868,7 +5888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -5889,7 +5909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -5910,7 +5930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -5931,7 +5951,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -5952,7 +5972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -5973,7 +5993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -5994,7 +6014,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -6015,7 +6035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -6036,7 +6056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -6057,7 +6077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -6078,7 +6098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -6099,7 +6119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -6120,7 +6140,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -6141,7 +6161,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -6162,7 +6182,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -6183,7 +6203,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -6204,7 +6224,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -6225,7 +6245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -6246,7 +6266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -6267,7 +6287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -6288,7 +6308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -6309,7 +6329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -6330,7 +6350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -6351,7 +6371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -6372,7 +6392,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -6393,7 +6413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -6414,7 +6434,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -6435,7 +6455,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -6456,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -6477,7 +6497,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -6498,7 +6518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -6519,7 +6539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -6540,7 +6560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -6561,7 +6581,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -6582,7 +6602,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -6603,7 +6623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -6624,7 +6644,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -6645,7 +6665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -6666,7 +6686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -6687,7 +6707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -6708,7 +6728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -6729,7 +6749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -6750,7 +6770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -6771,7 +6791,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -6792,7 +6812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -6813,7 +6833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -6834,7 +6854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -6855,7 +6875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -6876,7 +6896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -6897,7 +6917,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -6918,7 +6938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -6939,7 +6959,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -6960,7 +6980,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -6981,7 +7001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -7002,7 +7022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -7023,7 +7043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -7044,7 +7064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -7067,7 +7087,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -7090,7 +7110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -7113,7 +7133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -7136,7 +7156,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -7159,7 +7179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -7182,7 +7202,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -7205,7 +7225,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -7228,7 +7248,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -7251,7 +7271,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -7274,7 +7294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -7297,7 +7317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -7320,7 +7340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -7343,7 +7363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -7366,7 +7386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -7389,7 +7409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>153</v>
       </c>
@@ -7412,7 +7432,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -7435,7 +7455,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -7458,7 +7478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -7481,7 +7501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -7504,7 +7524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -7527,7 +7547,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -7550,7 +7570,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -7573,7 +7593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -7596,7 +7616,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -7619,7 +7639,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -7642,7 +7662,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -7665,7 +7685,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -7688,7 +7708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -7711,7 +7731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -7734,7 +7754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -7757,7 +7777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -7780,7 +7800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -7803,7 +7823,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -7826,7 +7846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -7849,7 +7869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -7872,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -7895,7 +7915,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>175</v>
       </c>
@@ -7918,7 +7938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>176</v>
       </c>
@@ -7941,7 +7961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>177</v>
       </c>
@@ -7964,7 +7984,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -7987,7 +8007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>179</v>
       </c>
@@ -8010,7 +8030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>180</v>
       </c>
@@ -8033,7 +8053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>181</v>
       </c>
@@ -8056,7 +8076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>182</v>
       </c>
@@ -8079,7 +8099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>183</v>
       </c>
@@ -8102,7 +8122,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>184</v>
       </c>
@@ -8125,7 +8145,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>185</v>
       </c>
@@ -8148,7 +8168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>186</v>
       </c>
@@ -8171,7 +8191,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>187</v>
       </c>
@@ -8194,7 +8214,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>188</v>
       </c>
@@ -8217,7 +8237,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>189</v>
       </c>
@@ -8240,7 +8260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>190</v>
       </c>
@@ -8263,7 +8283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>191</v>
       </c>
@@ -8286,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>192</v>
       </c>
@@ -8309,7 +8329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>193</v>
       </c>
@@ -8332,7 +8352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>194</v>
       </c>
@@ -8355,7 +8375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>195</v>
       </c>
@@ -8378,7 +8398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>196</v>
       </c>
@@ -8401,7 +8421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>197</v>
       </c>
@@ -8424,7 +8444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>198</v>
       </c>
@@ -8447,7 +8467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>199</v>
       </c>
@@ -8470,7 +8490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -8493,7 +8513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>201</v>
       </c>
@@ -8516,7 +8536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>202</v>
       </c>
@@ -8539,7 +8559,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>203</v>
       </c>
@@ -8562,7 +8582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>204</v>
       </c>
@@ -8585,7 +8605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>205</v>
       </c>
@@ -8608,7 +8628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>206</v>
       </c>
@@ -8631,7 +8651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>207</v>
       </c>
@@ -8654,7 +8674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>208</v>
       </c>
@@ -8677,7 +8697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>209</v>
       </c>
@@ -8700,7 +8720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>210</v>
       </c>
@@ -8723,7 +8743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>211</v>
       </c>
@@ -8746,7 +8766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>212</v>
       </c>
@@ -8769,7 +8789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>213</v>
       </c>
@@ -8792,7 +8812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>214</v>
       </c>
@@ -8815,7 +8835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>215</v>
       </c>
@@ -8838,7 +8858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>216</v>
       </c>
@@ -8861,7 +8881,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>217</v>
       </c>
@@ -8884,7 +8904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>218</v>
       </c>
@@ -8907,7 +8927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>219</v>
       </c>
@@ -8930,7 +8950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>220</v>
       </c>
@@ -8953,7 +8973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>221</v>
       </c>
@@ -8976,7 +8996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>222</v>
       </c>
@@ -8999,7 +9019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>223</v>
       </c>
@@ -9022,7 +9042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>224</v>
       </c>
@@ -9045,7 +9065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>225</v>
       </c>
@@ -9068,7 +9088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>226</v>
       </c>
@@ -9091,7 +9111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>227</v>
       </c>
@@ -9114,7 +9134,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>228</v>
       </c>
@@ -9137,7 +9157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>229</v>
       </c>
@@ -9160,7 +9180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>230</v>
       </c>
@@ -9183,7 +9203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>231</v>
       </c>
@@ -9206,7 +9226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>232</v>
       </c>
@@ -9229,7 +9249,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>233</v>
       </c>
@@ -9252,7 +9272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>234</v>
       </c>
@@ -9275,7 +9295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>235</v>
       </c>
@@ -9298,7 +9318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>236</v>
       </c>
@@ -9321,7 +9341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>237</v>
       </c>
@@ -9344,7 +9364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>238</v>
       </c>
@@ -9367,7 +9387,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>239</v>
       </c>
@@ -9390,7 +9410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>240</v>
       </c>
@@ -9413,7 +9433,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>241</v>
       </c>
@@ -9436,7 +9456,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>242</v>
       </c>
@@ -9459,7 +9479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>243</v>
       </c>
@@ -9482,7 +9502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>244</v>
       </c>
@@ -9505,7 +9525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>245</v>
       </c>
@@ -9528,7 +9548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>246</v>
       </c>
@@ -9551,7 +9571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>247</v>
       </c>
@@ -9574,7 +9594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>248</v>
       </c>
@@ -9597,7 +9617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>249</v>
       </c>
@@ -9620,7 +9640,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>250</v>
       </c>
@@ -9643,7 +9663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>251</v>
       </c>
@@ -9666,7 +9686,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>252</v>
       </c>
@@ -9689,7 +9709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>253</v>
       </c>
@@ -9712,7 +9732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>254</v>
       </c>
@@ -9735,7 +9755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>255</v>
       </c>
@@ -9758,7 +9778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>256</v>
       </c>
@@ -9781,7 +9801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>257</v>
       </c>
@@ -9804,7 +9824,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>258</v>
       </c>
@@ -9827,7 +9847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>259</v>
       </c>
@@ -9850,7 +9870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>260</v>
       </c>
@@ -9873,7 +9893,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>261</v>
       </c>
@@ -9896,7 +9916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>262</v>
       </c>
@@ -9919,7 +9939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>263</v>
       </c>
@@ -9942,7 +9962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>264</v>
       </c>
@@ -9965,7 +9985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>265</v>
       </c>
@@ -9988,7 +10008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>266</v>
       </c>
@@ -10011,7 +10031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>267</v>
       </c>
@@ -10034,7 +10054,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>268</v>
       </c>
@@ -10057,7 +10077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>269</v>
       </c>
@@ -10080,7 +10100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>270</v>
       </c>
@@ -10103,7 +10123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>271</v>
       </c>
@@ -10126,7 +10146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>272</v>
       </c>
@@ -10149,7 +10169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>273</v>
       </c>
@@ -10172,7 +10192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>274</v>
       </c>
@@ -10195,7 +10215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>275</v>
       </c>
@@ -10218,7 +10238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>276</v>
       </c>
@@ -10241,7 +10261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>277</v>
       </c>
@@ -10264,7 +10284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>278</v>
       </c>
@@ -10287,7 +10307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>279</v>
       </c>
@@ -10310,7 +10330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>280</v>
       </c>
@@ -10333,7 +10353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>281</v>
       </c>
@@ -10356,7 +10376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>282</v>
       </c>
@@ -10379,7 +10399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>283</v>
       </c>
@@ -10402,7 +10422,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>284</v>
       </c>
@@ -10425,7 +10445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>285</v>
       </c>
@@ -10448,7 +10468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>286</v>
       </c>
@@ -10471,7 +10491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>287</v>
       </c>
@@ -10494,7 +10514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>288</v>
       </c>
@@ -10517,7 +10537,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>289</v>
       </c>
@@ -10540,7 +10560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>290</v>
       </c>
@@ -10563,7 +10583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>291</v>
       </c>
@@ -10586,7 +10606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>292</v>
       </c>
@@ -10609,7 +10629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>293</v>
       </c>
@@ -10632,7 +10652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>294</v>
       </c>
@@ -10655,7 +10675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>295</v>
       </c>
@@ -10678,7 +10698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>296</v>
       </c>
@@ -10701,7 +10721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>297</v>
       </c>
@@ -10724,7 +10744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>298</v>
       </c>
@@ -10747,7 +10767,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>299</v>
       </c>
@@ -10770,7 +10790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>300</v>
       </c>
@@ -10793,7 +10813,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>301</v>
       </c>
@@ -10816,7 +10836,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>302</v>
       </c>
@@ -10839,7 +10859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>303</v>
       </c>
@@ -10862,7 +10882,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>304</v>
       </c>
@@ -10885,7 +10905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>305</v>
       </c>
@@ -10908,7 +10928,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>306</v>
       </c>
@@ -10931,7 +10951,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>307</v>
       </c>
@@ -10954,7 +10974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>308</v>
       </c>
@@ -10977,7 +10997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>309</v>
       </c>
@@ -11000,7 +11020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>310</v>
       </c>
@@ -11023,7 +11043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>311</v>
       </c>
@@ -11046,7 +11066,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>312</v>
       </c>
@@ -11069,7 +11089,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>313</v>
       </c>
@@ -11092,7 +11112,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>314</v>
       </c>
@@ -11115,7 +11135,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>315</v>
       </c>
@@ -11138,7 +11158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>316</v>
       </c>
@@ -11161,7 +11181,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>317</v>
       </c>
@@ -11184,7 +11204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>318</v>
       </c>
@@ -11207,7 +11227,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>319</v>
       </c>
@@ -11230,7 +11250,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>320</v>
       </c>
@@ -11253,7 +11273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>321</v>
       </c>
@@ -11276,7 +11296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>322</v>
       </c>
@@ -11299,7 +11319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>323</v>
       </c>
@@ -11322,7 +11342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>324</v>
       </c>
@@ -11345,7 +11365,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>325</v>
       </c>
@@ -11368,7 +11388,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>326</v>
       </c>
@@ -11391,7 +11411,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>327</v>
       </c>
@@ -11414,7 +11434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>328</v>
       </c>
@@ -11437,7 +11457,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>329</v>
       </c>
@@ -11460,7 +11480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>330</v>
       </c>
@@ -11483,7 +11503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>331</v>
       </c>
@@ -11506,7 +11526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>332</v>
       </c>
@@ -11529,7 +11549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>333</v>
       </c>
@@ -11552,7 +11572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>334</v>
       </c>
@@ -11575,7 +11595,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>335</v>
       </c>
@@ -11598,7 +11618,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>336</v>
       </c>
@@ -11621,7 +11641,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>337</v>
       </c>
@@ -11644,7 +11664,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>338</v>
       </c>
@@ -11667,7 +11687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>339</v>
       </c>
@@ -11690,7 +11710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>340</v>
       </c>
@@ -11713,7 +11733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>341</v>
       </c>
@@ -11736,7 +11756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>342</v>
       </c>
@@ -11759,7 +11779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>343</v>
       </c>
@@ -11782,7 +11802,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>344</v>
       </c>
@@ -11805,7 +11825,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>345</v>
       </c>
@@ -11828,7 +11848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>346</v>
       </c>
@@ -11851,7 +11871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>347</v>
       </c>
@@ -11874,7 +11894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>348</v>
       </c>
@@ -11897,7 +11917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>349</v>
       </c>
@@ -11920,7 +11940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>350</v>
       </c>
@@ -11943,7 +11963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>351</v>
       </c>
@@ -11966,7 +11986,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>352</v>
       </c>
@@ -11989,7 +12009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>353</v>
       </c>
@@ -12012,7 +12032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>354</v>
       </c>
@@ -12035,7 +12055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>355</v>
       </c>
@@ -12058,7 +12078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>356</v>
       </c>
@@ -12081,7 +12101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>357</v>
       </c>
@@ -12104,7 +12124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>358</v>
       </c>
@@ -12127,7 +12147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>359</v>
       </c>
@@ -12150,7 +12170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>360</v>
       </c>
@@ -12173,7 +12193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>361</v>
       </c>
@@ -12196,7 +12216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>362</v>
       </c>
@@ -12219,7 +12239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>363</v>
       </c>
@@ -12242,7 +12262,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>364</v>
       </c>
@@ -12265,7 +12285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>365</v>
       </c>
@@ -12288,7 +12308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>366</v>
       </c>
@@ -12311,7 +12331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>367</v>
       </c>
@@ -12334,7 +12354,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>368</v>
       </c>
@@ -12357,7 +12377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>369</v>
       </c>
@@ -12380,7 +12400,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>370</v>
       </c>
@@ -12403,7 +12423,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>371</v>
       </c>
@@ -12426,7 +12446,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>372</v>
       </c>
@@ -12449,7 +12469,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>373</v>
       </c>
@@ -12472,7 +12492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>374</v>
       </c>
@@ -12495,7 +12515,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>375</v>
       </c>
@@ -12518,7 +12538,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>376</v>
       </c>
@@ -12541,7 +12561,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>377</v>
       </c>
@@ -12564,7 +12584,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>378</v>
       </c>
@@ -12587,7 +12607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>379</v>
       </c>
@@ -12610,7 +12630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>380</v>
       </c>
@@ -12633,7 +12653,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>381</v>
       </c>
@@ -12656,7 +12676,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>382</v>
       </c>
@@ -12679,7 +12699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>383</v>
       </c>
@@ -12702,7 +12722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>384</v>
       </c>
@@ -12725,7 +12745,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>385</v>
       </c>
@@ -12748,7 +12768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>386</v>
       </c>
@@ -12771,7 +12791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>387</v>
       </c>
@@ -12794,7 +12814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>388</v>
       </c>
@@ -12817,7 +12837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>389</v>
       </c>
@@ -12840,7 +12860,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>390</v>
       </c>
@@ -12863,7 +12883,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>391</v>
       </c>
@@ -12886,7 +12906,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>392</v>
       </c>
@@ -12909,7 +12929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>393</v>
       </c>
@@ -12932,7 +12952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>394</v>
       </c>
@@ -12955,7 +12975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>395</v>
       </c>
@@ -12978,7 +12998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>396</v>
       </c>
@@ -13001,7 +13021,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>397</v>
       </c>
@@ -13024,7 +13044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>398</v>
       </c>
@@ -13047,7 +13067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>399</v>
       </c>
@@ -13070,7 +13090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>400</v>
       </c>
@@ -13093,7 +13113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>401</v>
       </c>
@@ -13116,7 +13136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>402</v>
       </c>
@@ -13139,7 +13159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>403</v>
       </c>
@@ -13162,7 +13182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>404</v>
       </c>
@@ -13191,17 +13211,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C234"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="13.7109375" customWidth="1"/>
+    <col min="1" max="16" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
@@ -13212,7 +13234,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -13223,7 +13245,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -13231,10 +13253,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -13245,7 +13267,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -13256,7 +13278,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -13267,7 +13289,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -13278,7 +13300,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -13289,7 +13311,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -13300,7 +13322,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -13311,7 +13333,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -13322,7 +13344,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -13333,7 +13355,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -13344,7 +13366,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -13352,10 +13374,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -13366,7 +13388,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -13377,7 +13399,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -13388,7 +13410,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -13399,7 +13421,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -13407,10 +13429,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -13421,7 +13443,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>24</v>
       </c>
@@ -13432,7 +13454,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>24</v>
       </c>
@@ -13443,7 +13465,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>25</v>
       </c>
@@ -13454,7 +13476,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>26</v>
       </c>
@@ -13465,7 +13487,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>26</v>
       </c>
@@ -13476,7 +13498,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>27</v>
       </c>
@@ -13487,7 +13509,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>28</v>
       </c>
@@ -13498,7 +13520,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>29</v>
       </c>
@@ -13509,7 +13531,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>36</v>
       </c>
@@ -13520,7 +13542,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>37</v>
       </c>
@@ -13531,7 +13553,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>37</v>
       </c>
@@ -13542,7 +13564,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>37</v>
       </c>
@@ -13553,7 +13575,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>37</v>
       </c>
@@ -13564,7 +13586,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>38</v>
       </c>
@@ -13575,7 +13597,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>39</v>
       </c>
@@ -13583,10 +13605,10 @@
         <v>37</v>
       </c>
       <c r="C35" s="2">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>39</v>
       </c>
@@ -13597,7 +13619,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>40</v>
       </c>
@@ -13608,7 +13630,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>40</v>
       </c>
@@ -13619,7 +13641,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>40</v>
       </c>
@@ -13630,7 +13652,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -13641,7 +13663,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -13652,7 +13674,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43</v>
       </c>
@@ -13663,7 +13685,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -13674,7 +13696,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>47</v>
       </c>
@@ -13685,7 +13707,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>49</v>
       </c>
@@ -13696,7 +13718,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>51</v>
       </c>
@@ -13704,10 +13726,10 @@
         <v>52</v>
       </c>
       <c r="C46" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>56</v>
       </c>
@@ -13718,7 +13740,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>58</v>
       </c>
@@ -13729,7 +13751,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>61</v>
       </c>
@@ -13740,7 +13762,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>67</v>
       </c>
@@ -13751,7 +13773,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>69</v>
       </c>
@@ -13762,7 +13784,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>69</v>
       </c>
@@ -13770,10 +13792,10 @@
         <v>73</v>
       </c>
       <c r="C52" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>70</v>
       </c>
@@ -13784,7 +13806,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>70</v>
       </c>
@@ -13795,7 +13817,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>71</v>
       </c>
@@ -13806,7 +13828,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>71</v>
       </c>
@@ -13817,7 +13839,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>72</v>
       </c>
@@ -13828,7 +13850,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>73</v>
       </c>
@@ -13839,7 +13861,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>74</v>
       </c>
@@ -13850,7 +13872,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>75</v>
       </c>
@@ -13861,7 +13883,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>83</v>
       </c>
@@ -13872,7 +13894,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>85</v>
       </c>
@@ -13883,7 +13905,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>98</v>
       </c>
@@ -13891,10 +13913,10 @@
         <v>99</v>
       </c>
       <c r="C63" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>98</v>
       </c>
@@ -13905,7 +13927,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>100</v>
       </c>
@@ -13916,7 +13938,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>101</v>
       </c>
@@ -13927,7 +13949,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>101</v>
       </c>
@@ -13938,7 +13960,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>102</v>
       </c>
@@ -13949,7 +13971,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>105</v>
       </c>
@@ -13960,7 +13982,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>106</v>
       </c>
@@ -13971,7 +13993,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>106</v>
       </c>
@@ -13982,7 +14004,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>106</v>
       </c>
@@ -13990,10 +14012,10 @@
         <v>290</v>
       </c>
       <c r="C72" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>107</v>
       </c>
@@ -14004,7 +14026,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>111</v>
       </c>
@@ -14015,7 +14037,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>112</v>
       </c>
@@ -14026,7 +14048,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>113</v>
       </c>
@@ -14037,7 +14059,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>114</v>
       </c>
@@ -14048,7 +14070,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>121</v>
       </c>
@@ -14059,7 +14081,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>122</v>
       </c>
@@ -14070,7 +14092,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>123</v>
       </c>
@@ -14081,7 +14103,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>126</v>
       </c>
@@ -14092,7 +14114,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>127</v>
       </c>
@@ -14103,7 +14125,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>127</v>
       </c>
@@ -14114,7 +14136,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>138</v>
       </c>
@@ -14125,7 +14147,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>140</v>
       </c>
@@ -14136,7 +14158,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>141</v>
       </c>
@@ -14147,7 +14169,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>145</v>
       </c>
@@ -14158,7 +14180,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>145</v>
       </c>
@@ -14169,7 +14191,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>145</v>
       </c>
@@ -14180,7 +14202,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>147</v>
       </c>
@@ -14191,7 +14213,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>147</v>
       </c>
@@ -14202,7 +14224,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>148</v>
       </c>
@@ -14213,7 +14235,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>148</v>
       </c>
@@ -14224,7 +14246,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>155</v>
       </c>
@@ -14235,7 +14257,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>155</v>
       </c>
@@ -14246,7 +14268,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>157</v>
       </c>
@@ -14257,7 +14279,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>161</v>
       </c>
@@ -14268,7 +14290,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>162</v>
       </c>
@@ -14279,7 +14301,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>164</v>
       </c>
@@ -14290,7 +14312,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>165</v>
       </c>
@@ -14301,7 +14323,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>165</v>
       </c>
@@ -14312,7 +14334,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>165</v>
       </c>
@@ -14323,7 +14345,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>170</v>
       </c>
@@ -14334,7 +14356,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>170</v>
       </c>
@@ -14345,7 +14367,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>171</v>
       </c>
@@ -14356,7 +14378,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>171</v>
       </c>
@@ -14367,7 +14389,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>172</v>
       </c>
@@ -14378,7 +14400,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>173</v>
       </c>
@@ -14389,7 +14411,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>176</v>
       </c>
@@ -14400,7 +14422,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>177</v>
       </c>
@@ -14411,7 +14433,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>178</v>
       </c>
@@ -14422,7 +14444,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>179</v>
       </c>
@@ -14433,7 +14455,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>179</v>
       </c>
@@ -14444,7 +14466,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>179</v>
       </c>
@@ -14455,7 +14477,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>180</v>
       </c>
@@ -14466,7 +14488,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>180</v>
       </c>
@@ -14477,7 +14499,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>181</v>
       </c>
@@ -14488,7 +14510,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>185</v>
       </c>
@@ -14499,7 +14521,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>186</v>
       </c>
@@ -14510,7 +14532,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>187</v>
       </c>
@@ -14518,10 +14540,10 @@
         <v>28</v>
       </c>
       <c r="C120" s="2">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>188</v>
       </c>
@@ -14532,7 +14554,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>189</v>
       </c>
@@ -14543,7 +14565,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>191</v>
       </c>
@@ -14554,7 +14576,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>194</v>
       </c>
@@ -14565,7 +14587,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>197</v>
       </c>
@@ -14576,7 +14598,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>198</v>
       </c>
@@ -14587,7 +14609,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>202</v>
       </c>
@@ -14598,7 +14620,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>203</v>
       </c>
@@ -14609,7 +14631,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>203</v>
       </c>
@@ -14620,7 +14642,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>205</v>
       </c>
@@ -14631,7 +14653,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>207</v>
       </c>
@@ -14642,7 +14664,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>207</v>
       </c>
@@ -14653,7 +14675,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>208</v>
       </c>
@@ -14664,7 +14686,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>209</v>
       </c>
@@ -14675,7 +14697,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>211</v>
       </c>
@@ -14686,7 +14708,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>213</v>
       </c>
@@ -14697,7 +14719,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>214</v>
       </c>
@@ -14708,7 +14730,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>214</v>
       </c>
@@ -14719,7 +14741,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>214</v>
       </c>
@@ -14730,7 +14752,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>215</v>
       </c>
@@ -14741,7 +14763,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>215</v>
       </c>
@@ -14752,7 +14774,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>215</v>
       </c>
@@ -14763,7 +14785,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>222</v>
       </c>
@@ -14771,10 +14793,10 @@
         <v>237</v>
       </c>
       <c r="C143" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>224</v>
       </c>
@@ -14785,7 +14807,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>224</v>
       </c>
@@ -14796,7 +14818,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>224</v>
       </c>
@@ -14807,7 +14829,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>226</v>
       </c>
@@ -14818,7 +14840,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>230</v>
       </c>
@@ -14826,10 +14848,10 @@
         <v>37</v>
       </c>
       <c r="C148" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>231</v>
       </c>
@@ -14840,7 +14862,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>231</v>
       </c>
@@ -14851,7 +14873,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>232</v>
       </c>
@@ -14862,7 +14884,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>234</v>
       </c>
@@ -14873,7 +14895,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>234</v>
       </c>
@@ -14884,7 +14906,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>235</v>
       </c>
@@ -14895,7 +14917,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>236</v>
       </c>
@@ -14906,7 +14928,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>247</v>
       </c>
@@ -14917,7 +14939,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>247</v>
       </c>
@@ -14928,7 +14950,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>247</v>
       </c>
@@ -14939,7 +14961,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>248</v>
       </c>
@@ -14950,7 +14972,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>248</v>
       </c>
@@ -14961,7 +14983,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>252</v>
       </c>
@@ -14972,7 +14994,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>252</v>
       </c>
@@ -14983,7 +15005,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>255</v>
       </c>
@@ -14994,7 +15016,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>256</v>
       </c>
@@ -15005,7 +15027,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>258</v>
       </c>
@@ -15016,7 +15038,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>259</v>
       </c>
@@ -15027,7 +15049,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>259</v>
       </c>
@@ -15035,10 +15057,10 @@
         <v>284</v>
       </c>
       <c r="C167" s="2">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>259</v>
       </c>
@@ -15049,7 +15071,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>262</v>
       </c>
@@ -15060,7 +15082,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>265</v>
       </c>
@@ -15068,10 +15090,10 @@
         <v>273</v>
       </c>
       <c r="C170" s="2">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>271</v>
       </c>
@@ -15082,7 +15104,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>272</v>
       </c>
@@ -15090,10 +15112,10 @@
         <v>265</v>
       </c>
       <c r="C172" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>272</v>
       </c>
@@ -15104,7 +15126,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>273</v>
       </c>
@@ -15115,7 +15137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>274</v>
       </c>
@@ -15123,10 +15145,10 @@
         <v>263</v>
       </c>
       <c r="C175" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>274</v>
       </c>
@@ -15137,7 +15159,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>277</v>
       </c>
@@ -15148,7 +15170,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>278</v>
       </c>
@@ -15159,7 +15181,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>280</v>
       </c>
@@ -15170,7 +15192,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>280</v>
       </c>
@@ -15181,7 +15203,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>281</v>
       </c>
@@ -15192,7 +15214,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>282</v>
       </c>
@@ -15203,7 +15225,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>284</v>
       </c>
@@ -15214,7 +15236,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>286</v>
       </c>
@@ -15225,7 +15247,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>286</v>
       </c>
@@ -15236,7 +15258,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>287</v>
       </c>
@@ -15247,7 +15269,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>287</v>
       </c>
@@ -15258,7 +15280,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>288</v>
       </c>
@@ -15269,7 +15291,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>289</v>
       </c>
@@ -15280,7 +15302,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>290</v>
       </c>
@@ -15288,10 +15310,10 @@
         <v>277</v>
       </c>
       <c r="C190" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>292</v>
       </c>
@@ -15302,7 +15324,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>292</v>
       </c>
@@ -15313,7 +15335,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>292</v>
       </c>
@@ -15324,7 +15346,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>296</v>
       </c>
@@ -15335,7 +15357,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>296</v>
       </c>
@@ -15343,10 +15365,10 @@
         <v>289</v>
       </c>
       <c r="C195" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>302</v>
       </c>
@@ -15357,7 +15379,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>308</v>
       </c>
@@ -15368,7 +15390,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>311</v>
       </c>
@@ -15379,7 +15401,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>328</v>
       </c>
@@ -15390,7 +15412,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>330</v>
       </c>
@@ -15401,7 +15423,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>330</v>
       </c>
@@ -15412,7 +15434,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>332</v>
       </c>
@@ -15423,7 +15445,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>332</v>
       </c>
@@ -15434,7 +15456,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>332</v>
       </c>
@@ -15445,7 +15467,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>333</v>
       </c>
@@ -15456,7 +15478,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>339</v>
       </c>
@@ -15464,10 +15486,10 @@
         <v>341</v>
       </c>
       <c r="C206" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>339</v>
       </c>
@@ -15478,7 +15500,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>340</v>
       </c>
@@ -15489,7 +15511,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>340</v>
       </c>
@@ -15500,7 +15522,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>341</v>
       </c>
@@ -15511,7 +15533,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>344</v>
       </c>
@@ -15522,7 +15544,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>346</v>
       </c>
@@ -15530,10 +15552,10 @@
         <v>359</v>
       </c>
       <c r="C212" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>347</v>
       </c>
@@ -15544,7 +15566,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>352</v>
       </c>
@@ -15555,7 +15577,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>353</v>
       </c>
@@ -15566,7 +15588,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>353</v>
       </c>
@@ -15577,7 +15599,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>356</v>
       </c>
@@ -15588,7 +15610,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>357</v>
       </c>
@@ -15599,7 +15621,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>359</v>
       </c>
@@ -15610,7 +15632,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>359</v>
       </c>
@@ -15621,7 +15643,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>360</v>
       </c>
@@ -15629,10 +15651,10 @@
         <v>332</v>
       </c>
       <c r="C221" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>360</v>
       </c>
@@ -15643,7 +15665,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>360</v>
       </c>
@@ -15654,7 +15676,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>366</v>
       </c>
@@ -15665,7 +15687,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>366</v>
       </c>
@@ -15676,7 +15698,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>366</v>
       </c>
@@ -15687,7 +15709,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>366</v>
       </c>
@@ -15695,10 +15717,10 @@
         <v>367</v>
       </c>
       <c r="C227" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>368</v>
       </c>
@@ -15709,7 +15731,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>368</v>
       </c>
@@ -15720,7 +15742,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>372</v>
       </c>
@@ -15731,7 +15753,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>373</v>
       </c>
@@ -15742,7 +15764,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>384</v>
       </c>
@@ -15753,7 +15775,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>387</v>
       </c>
@@ -15764,7 +15786,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>401</v>
       </c>

--- a/Group_12.xlsx
+++ b/Group_12.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllFiles\AE4423-20\AirlinePlanningOptimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D147DE-2F25-42A0-9AB6-1A7EA5BDC1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
     <sheet name="Itineraries" sheetId="2" r:id="rId2"/>
     <sheet name="Recapture" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -978,8 +989,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,13 +1041,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1074,7 +1093,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1108,6 +1127,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1142,9 +1162,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1317,17 +1338,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16" width="13.7109375" customWidth="1"/>
+    <col min="1" max="16" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
@@ -1347,7 +1370,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1390,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1387,7 +1410,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1407,7 +1430,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1427,7 +1450,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1447,7 +1470,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1467,7 +1490,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1487,7 +1510,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1507,7 +1530,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1527,7 +1550,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1547,7 +1570,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1567,7 +1590,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1587,7 +1610,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1607,7 +1630,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +1650,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1647,7 +1670,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1667,7 +1690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1687,7 +1710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1707,7 +1730,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -1727,7 +1750,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1747,7 +1770,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1767,7 +1790,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1787,7 +1810,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -1807,7 +1830,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -1827,7 +1850,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -1847,7 +1870,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -1867,7 +1890,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -1887,7 +1910,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -1907,7 +1930,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -1927,7 +1950,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -1947,7 +1970,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -1967,7 +1990,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1987,7 +2010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -2007,7 +2030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -2027,7 +2050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
@@ -2047,7 +2070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -2067,7 +2090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -2087,7 +2110,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -2107,7 +2130,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -2127,7 +2150,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -2147,7 +2170,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2167,7 +2190,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -2187,7 +2210,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -2207,7 +2230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
@@ -2227,7 +2250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
@@ -2247,7 +2270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>58</v>
       </c>
@@ -2267,7 +2290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>59</v>
       </c>
@@ -2287,7 +2310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
@@ -2307,7 +2330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
@@ -2327,7 +2350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>62</v>
       </c>
@@ -2347,7 +2370,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>63</v>
       </c>
@@ -2367,7 +2390,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>64</v>
       </c>
@@ -2387,7 +2410,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>65</v>
       </c>
@@ -2407,7 +2430,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2427,7 +2450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>67</v>
       </c>
@@ -2447,7 +2470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>68</v>
       </c>
@@ -2467,7 +2490,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>69</v>
       </c>
@@ -2487,7 +2510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>70</v>
       </c>
@@ -2507,7 +2530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>71</v>
       </c>
@@ -2527,7 +2550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>72</v>
       </c>
@@ -2547,7 +2570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>73</v>
       </c>
@@ -2567,7 +2590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>74</v>
       </c>
@@ -2587,7 +2610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>75</v>
       </c>
@@ -2607,7 +2630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>76</v>
       </c>
@@ -2627,7 +2650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>77</v>
       </c>
@@ -2647,7 +2670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>79</v>
       </c>
@@ -2667,7 +2690,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>81</v>
       </c>
@@ -2687,7 +2710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>83</v>
       </c>
@@ -2707,7 +2730,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
@@ -2727,7 +2750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>85</v>
       </c>
@@ -2747,7 +2770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>86</v>
       </c>
@@ -2767,7 +2790,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>87</v>
       </c>
@@ -2787,7 +2810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>88</v>
       </c>
@@ -2807,7 +2830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>89</v>
       </c>
@@ -2827,7 +2850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>90</v>
       </c>
@@ -2847,7 +2870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>91</v>
       </c>
@@ -2867,7 +2890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>93</v>
       </c>
@@ -2887,7 +2910,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -2907,7 +2930,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -2927,7 +2950,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>97</v>
       </c>
@@ -2947,7 +2970,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>99</v>
       </c>
@@ -2967,7 +2990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>100</v>
       </c>
@@ -2987,7 +3010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>101</v>
       </c>
@@ -3007,7 +3030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>102</v>
       </c>
@@ -3027,7 +3050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>103</v>
       </c>
@@ -3047,7 +3070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>104</v>
       </c>
@@ -3067,7 +3090,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>105</v>
       </c>
@@ -3087,7 +3110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>106</v>
       </c>
@@ -3107,7 +3130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>108</v>
       </c>
@@ -3127,7 +3150,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>110</v>
       </c>
@@ -3147,7 +3170,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>111</v>
       </c>
@@ -3167,7 +3190,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>113</v>
       </c>
@@ -3187,7 +3210,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>115</v>
       </c>
@@ -3207,7 +3230,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>116</v>
       </c>
@@ -3227,7 +3250,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>117</v>
       </c>
@@ -3247,7 +3270,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>118</v>
       </c>
@@ -3267,7 +3290,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>119</v>
       </c>
@@ -3287,7 +3310,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>120</v>
       </c>
@@ -3307,7 +3330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>121</v>
       </c>
@@ -3327,7 +3350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>122</v>
       </c>
@@ -3347,7 +3370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>123</v>
       </c>
@@ -3367,7 +3390,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>124</v>
       </c>
@@ -3387,7 +3410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>125</v>
       </c>
@@ -3407,7 +3430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>126</v>
       </c>
@@ -3427,7 +3450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>127</v>
       </c>
@@ -3447,7 +3470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>128</v>
       </c>
@@ -3467,7 +3490,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>129</v>
       </c>
@@ -3487,7 +3510,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>130</v>
       </c>
@@ -3507,7 +3530,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>131</v>
       </c>
@@ -3527,7 +3550,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>132</v>
       </c>
@@ -3547,7 +3570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>133</v>
       </c>
@@ -3567,7 +3590,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>134</v>
       </c>
@@ -3587,7 +3610,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>135</v>
       </c>
@@ -3607,7 +3630,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>136</v>
       </c>
@@ -3627,7 +3650,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>137</v>
       </c>
@@ -3647,7 +3670,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>138</v>
       </c>
@@ -3667,7 +3690,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>139</v>
       </c>
@@ -3687,7 +3710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>140</v>
       </c>
@@ -3707,7 +3730,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>141</v>
       </c>
@@ -3727,7 +3750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>142</v>
       </c>
@@ -3747,7 +3770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>143</v>
       </c>
@@ -3767,7 +3790,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>144</v>
       </c>
@@ -3787,7 +3810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>145</v>
       </c>
@@ -3807,7 +3830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>146</v>
       </c>
@@ -3827,7 +3850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>147</v>
       </c>
@@ -3847,7 +3870,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -3867,7 +3890,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -3887,7 +3910,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>150</v>
       </c>
@@ -3907,7 +3930,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>151</v>
       </c>
@@ -3927,7 +3950,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>152</v>
       </c>
@@ -3947,7 +3970,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>153</v>
       </c>
@@ -3967,7 +3990,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>154</v>
       </c>
@@ -3987,7 +4010,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>155</v>
       </c>
@@ -4007,7 +4030,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>156</v>
       </c>
@@ -4027,7 +4050,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>157</v>
       </c>
@@ -4047,7 +4070,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>158</v>
       </c>
@@ -4067,7 +4090,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>159</v>
       </c>
@@ -4087,7 +4110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>160</v>
       </c>
@@ -4113,17 +4136,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16" width="13.7109375" customWidth="1"/>
+    <col min="1" max="16" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4146,7 +4169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -4167,7 +4190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4188,7 +4211,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4209,7 +4232,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4230,7 +4253,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4251,7 +4274,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4272,7 +4295,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4293,7 +4316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4314,7 +4337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4335,7 +4358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4356,7 +4379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4377,7 +4400,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4398,7 +4421,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4419,7 +4442,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4440,7 +4463,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4461,7 +4484,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -4482,7 +4505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -4503,7 +4526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -4524,7 +4547,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -4545,7 +4568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -4566,7 +4589,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -4587,7 +4610,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -4608,7 +4631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -4629,7 +4652,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -4650,7 +4673,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -4671,7 +4694,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -4692,7 +4715,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -4713,7 +4736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -4734,7 +4757,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -4755,7 +4778,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -4776,7 +4799,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -4797,7 +4820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -4818,7 +4841,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -4839,7 +4862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -4860,7 +4883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -4881,7 +4904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -4902,7 +4925,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -4923,7 +4946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -4944,7 +4967,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -4965,7 +4988,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -4986,7 +5009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -5007,7 +5030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -5028,7 +5051,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -5049,7 +5072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -5070,7 +5093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -5091,7 +5114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -5112,7 +5135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -5133,7 +5156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -5154,7 +5177,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -5175,7 +5198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -5196,7 +5219,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -5217,7 +5240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -5238,7 +5261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -5259,7 +5282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -5280,7 +5303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -5301,7 +5324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -5322,7 +5345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -5343,7 +5366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -5364,7 +5387,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -5385,7 +5408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -5406,7 +5429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -5427,7 +5450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -5448,7 +5471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -5469,7 +5492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -5490,7 +5513,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -5511,7 +5534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -5532,7 +5555,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -5553,7 +5576,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -5574,7 +5597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -5595,7 +5618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -5616,7 +5639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -5637,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -5658,7 +5681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -5679,7 +5702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -5700,7 +5723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -5721,7 +5744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -5742,7 +5765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -5763,7 +5786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -5784,7 +5807,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -5805,7 +5828,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -5826,7 +5849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -5847,7 +5870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -5868,7 +5891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -5889,7 +5912,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -5910,7 +5933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -5931,7 +5954,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -5952,7 +5975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -5973,7 +5996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -5994,7 +6017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -6015,7 +6038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -6036,7 +6059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -6057,7 +6080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -6078,7 +6101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -6099,7 +6122,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -6120,7 +6143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -6141,7 +6164,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -6162,7 +6185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -6183,7 +6206,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -6204,7 +6227,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -6225,7 +6248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -6246,7 +6269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -6267,7 +6290,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -6288,7 +6311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -6309,7 +6332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -6330,7 +6353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -6351,7 +6374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -6372,7 +6395,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -6393,7 +6416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -6414,7 +6437,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -6435,7 +6458,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -6456,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -6477,7 +6500,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -6498,7 +6521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -6519,7 +6542,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -6540,7 +6563,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -6561,7 +6584,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -6582,7 +6605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -6603,7 +6626,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -6624,7 +6647,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -6645,7 +6668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -6666,7 +6689,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -6687,7 +6710,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -6708,7 +6731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -6729,7 +6752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -6750,7 +6773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -6771,7 +6794,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -6792,7 +6815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -6813,7 +6836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -6834,7 +6857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -6855,7 +6878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -6876,7 +6899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -6897,7 +6920,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -6918,7 +6941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -6939,7 +6962,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -6960,7 +6983,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -6981,7 +7004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -7002,7 +7025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -7023,7 +7046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -7044,7 +7067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -7067,7 +7090,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -7090,7 +7113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -7113,7 +7136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -7136,7 +7159,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -7159,7 +7182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -7182,7 +7205,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -7205,7 +7228,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -7228,7 +7251,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -7251,7 +7274,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -7274,7 +7297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -7297,7 +7320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -7320,7 +7343,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -7343,7 +7366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -7366,7 +7389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -7389,7 +7412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>153</v>
       </c>
@@ -7412,7 +7435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -7435,7 +7458,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -7458,7 +7481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -7481,7 +7504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -7504,7 +7527,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -7527,7 +7550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -7550,7 +7573,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -7573,7 +7596,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -7596,7 +7619,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -7619,7 +7642,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -7642,7 +7665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -7665,7 +7688,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -7688,7 +7711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -7711,7 +7734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -7734,7 +7757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -7757,7 +7780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -7780,7 +7803,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -7803,7 +7826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -7826,7 +7849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -7849,7 +7872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -7872,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -7895,7 +7918,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>175</v>
       </c>
@@ -7918,7 +7941,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>176</v>
       </c>
@@ -7941,7 +7964,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>177</v>
       </c>
@@ -7964,7 +7987,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -7987,7 +8010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>179</v>
       </c>
@@ -8010,7 +8033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>180</v>
       </c>
@@ -8033,7 +8056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>181</v>
       </c>
@@ -8056,7 +8079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>182</v>
       </c>
@@ -8079,7 +8102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>183</v>
       </c>
@@ -8102,7 +8125,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>184</v>
       </c>
@@ -8125,7 +8148,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>185</v>
       </c>
@@ -8148,7 +8171,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>186</v>
       </c>
@@ -8171,7 +8194,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>187</v>
       </c>
@@ -8194,7 +8217,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>188</v>
       </c>
@@ -8217,7 +8240,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>189</v>
       </c>
@@ -8240,7 +8263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>190</v>
       </c>
@@ -8263,7 +8286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>191</v>
       </c>
@@ -8286,7 +8309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>192</v>
       </c>
@@ -8309,7 +8332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>193</v>
       </c>
@@ -8332,7 +8355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>194</v>
       </c>
@@ -8355,7 +8378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>195</v>
       </c>
@@ -8378,7 +8401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>196</v>
       </c>
@@ -8401,7 +8424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>197</v>
       </c>
@@ -8424,7 +8447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>198</v>
       </c>
@@ -8447,7 +8470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>199</v>
       </c>
@@ -8470,7 +8493,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -8493,7 +8516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>201</v>
       </c>
@@ -8516,7 +8539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>202</v>
       </c>
@@ -8539,7 +8562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>203</v>
       </c>
@@ -8562,7 +8585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>204</v>
       </c>
@@ -8585,7 +8608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>205</v>
       </c>
@@ -8608,7 +8631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>206</v>
       </c>
@@ -8631,7 +8654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>207</v>
       </c>
@@ -8654,7 +8677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>208</v>
       </c>
@@ -8677,7 +8700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>209</v>
       </c>
@@ -8700,7 +8723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>210</v>
       </c>
@@ -8723,7 +8746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>211</v>
       </c>
@@ -8746,7 +8769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>212</v>
       </c>
@@ -8769,7 +8792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>213</v>
       </c>
@@ -8792,7 +8815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>214</v>
       </c>
@@ -8815,7 +8838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>215</v>
       </c>
@@ -8838,7 +8861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>216</v>
       </c>
@@ -8861,7 +8884,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>217</v>
       </c>
@@ -8884,7 +8907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>218</v>
       </c>
@@ -8907,7 +8930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>219</v>
       </c>
@@ -8930,7 +8953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>220</v>
       </c>
@@ -8953,7 +8976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>221</v>
       </c>
@@ -8976,7 +8999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>222</v>
       </c>
@@ -8999,7 +9022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>223</v>
       </c>
@@ -9022,7 +9045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>224</v>
       </c>
@@ -9045,7 +9068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>225</v>
       </c>
@@ -9068,7 +9091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>226</v>
       </c>
@@ -9091,7 +9114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>227</v>
       </c>
@@ -9114,7 +9137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>228</v>
       </c>
@@ -9137,7 +9160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>229</v>
       </c>
@@ -9160,7 +9183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>230</v>
       </c>
@@ -9183,7 +9206,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>231</v>
       </c>
@@ -9206,7 +9229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>232</v>
       </c>
@@ -9229,7 +9252,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>233</v>
       </c>
@@ -9252,7 +9275,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>234</v>
       </c>
@@ -9275,7 +9298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>235</v>
       </c>
@@ -9298,7 +9321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>236</v>
       </c>
@@ -9321,7 +9344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>237</v>
       </c>
@@ -9344,7 +9367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>238</v>
       </c>
@@ -9367,7 +9390,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>239</v>
       </c>
@@ -9390,7 +9413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>240</v>
       </c>
@@ -9413,7 +9436,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>241</v>
       </c>
@@ -9436,7 +9459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>242</v>
       </c>
@@ -9459,7 +9482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>243</v>
       </c>
@@ -9482,7 +9505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>244</v>
       </c>
@@ -9505,7 +9528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>245</v>
       </c>
@@ -9528,7 +9551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>246</v>
       </c>
@@ -9551,7 +9574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>247</v>
       </c>
@@ -9574,7 +9597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>248</v>
       </c>
@@ -9597,7 +9620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>249</v>
       </c>
@@ -9620,7 +9643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>250</v>
       </c>
@@ -9643,7 +9666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>251</v>
       </c>
@@ -9666,7 +9689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>252</v>
       </c>
@@ -9689,7 +9712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>253</v>
       </c>
@@ -9712,7 +9735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>254</v>
       </c>
@@ -9735,7 +9758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>255</v>
       </c>
@@ -9758,7 +9781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>256</v>
       </c>
@@ -9781,7 +9804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>257</v>
       </c>
@@ -9804,7 +9827,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>258</v>
       </c>
@@ -9827,7 +9850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>259</v>
       </c>
@@ -9850,7 +9873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>260</v>
       </c>
@@ -9873,7 +9896,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>261</v>
       </c>
@@ -9896,7 +9919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>262</v>
       </c>
@@ -9919,7 +9942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>263</v>
       </c>
@@ -9942,7 +9965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>264</v>
       </c>
@@ -9965,7 +9988,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>265</v>
       </c>
@@ -9988,7 +10011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>266</v>
       </c>
@@ -10011,7 +10034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>267</v>
       </c>
@@ -10034,7 +10057,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>268</v>
       </c>
@@ -10057,7 +10080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>269</v>
       </c>
@@ -10080,7 +10103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>270</v>
       </c>
@@ -10103,7 +10126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>271</v>
       </c>
@@ -10126,7 +10149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>272</v>
       </c>
@@ -10149,7 +10172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>273</v>
       </c>
@@ -10172,7 +10195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>274</v>
       </c>
@@ -10195,7 +10218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>275</v>
       </c>
@@ -10218,7 +10241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>276</v>
       </c>
@@ -10241,7 +10264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>277</v>
       </c>
@@ -10264,7 +10287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>278</v>
       </c>
@@ -10287,7 +10310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>279</v>
       </c>
@@ -10310,7 +10333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>280</v>
       </c>
@@ -10333,7 +10356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>281</v>
       </c>
@@ -10356,7 +10379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>282</v>
       </c>
@@ -10379,7 +10402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>283</v>
       </c>
@@ -10402,7 +10425,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>284</v>
       </c>
@@ -10425,7 +10448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>285</v>
       </c>
@@ -10448,7 +10471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>286</v>
       </c>
@@ -10471,7 +10494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>287</v>
       </c>
@@ -10494,7 +10517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>288</v>
       </c>
@@ -10517,7 +10540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>289</v>
       </c>
@@ -10540,7 +10563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>290</v>
       </c>
@@ -10563,7 +10586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>291</v>
       </c>
@@ -10586,7 +10609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>292</v>
       </c>
@@ -10609,7 +10632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>293</v>
       </c>
@@ -10632,7 +10655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>294</v>
       </c>
@@ -10655,7 +10678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>295</v>
       </c>
@@ -10678,7 +10701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>296</v>
       </c>
@@ -10701,7 +10724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>297</v>
       </c>
@@ -10724,7 +10747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>298</v>
       </c>
@@ -10747,7 +10770,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>299</v>
       </c>
@@ -10770,7 +10793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>300</v>
       </c>
@@ -10793,7 +10816,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>301</v>
       </c>
@@ -10816,7 +10839,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>302</v>
       </c>
@@ -10839,7 +10862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>303</v>
       </c>
@@ -10862,7 +10885,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>304</v>
       </c>
@@ -10885,7 +10908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>305</v>
       </c>
@@ -10908,7 +10931,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>306</v>
       </c>
@@ -10931,7 +10954,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>307</v>
       </c>
@@ -10954,7 +10977,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>308</v>
       </c>
@@ -10977,7 +11000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>309</v>
       </c>
@@ -11000,7 +11023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>310</v>
       </c>
@@ -11023,7 +11046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>311</v>
       </c>
@@ -11046,7 +11069,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>312</v>
       </c>
@@ -11069,7 +11092,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>313</v>
       </c>
@@ -11092,7 +11115,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>314</v>
       </c>
@@ -11115,7 +11138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>315</v>
       </c>
@@ -11138,7 +11161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>316</v>
       </c>
@@ -11161,7 +11184,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>317</v>
       </c>
@@ -11184,7 +11207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>318</v>
       </c>
@@ -11207,7 +11230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>319</v>
       </c>
@@ -11230,7 +11253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>320</v>
       </c>
@@ -11253,7 +11276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>321</v>
       </c>
@@ -11276,7 +11299,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>322</v>
       </c>
@@ -11299,7 +11322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>323</v>
       </c>
@@ -11322,7 +11345,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>324</v>
       </c>
@@ -11345,7 +11368,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>325</v>
       </c>
@@ -11368,7 +11391,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>326</v>
       </c>
@@ -11391,7 +11414,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>327</v>
       </c>
@@ -11414,7 +11437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>328</v>
       </c>
@@ -11437,7 +11460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>329</v>
       </c>
@@ -11460,7 +11483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>330</v>
       </c>
@@ -11483,7 +11506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>331</v>
       </c>
@@ -11506,7 +11529,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>332</v>
       </c>
@@ -11529,7 +11552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>333</v>
       </c>
@@ -11552,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>334</v>
       </c>
@@ -11575,7 +11598,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>335</v>
       </c>
@@ -11598,7 +11621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>336</v>
       </c>
@@ -11621,7 +11644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>337</v>
       </c>
@@ -11644,7 +11667,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>338</v>
       </c>
@@ -11667,7 +11690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>339</v>
       </c>
@@ -11690,7 +11713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>340</v>
       </c>
@@ -11713,7 +11736,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>341</v>
       </c>
@@ -11736,7 +11759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>342</v>
       </c>
@@ -11759,7 +11782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>343</v>
       </c>
@@ -11782,7 +11805,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>344</v>
       </c>
@@ -11805,7 +11828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>345</v>
       </c>
@@ -11828,7 +11851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>346</v>
       </c>
@@ -11851,7 +11874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>347</v>
       </c>
@@ -11874,7 +11897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>348</v>
       </c>
@@ -11897,7 +11920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>349</v>
       </c>
@@ -11920,7 +11943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>350</v>
       </c>
@@ -11943,7 +11966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>351</v>
       </c>
@@ -11966,7 +11989,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>352</v>
       </c>
@@ -11989,7 +12012,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>353</v>
       </c>
@@ -12012,7 +12035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>354</v>
       </c>
@@ -12035,7 +12058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>355</v>
       </c>
@@ -12058,7 +12081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>356</v>
       </c>
@@ -12081,7 +12104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>357</v>
       </c>
@@ -12104,7 +12127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>358</v>
       </c>
@@ -12127,7 +12150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>359</v>
       </c>
@@ -12150,7 +12173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>360</v>
       </c>
@@ -12173,7 +12196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>361</v>
       </c>
@@ -12196,7 +12219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>362</v>
       </c>
@@ -12219,7 +12242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>363</v>
       </c>
@@ -12242,7 +12265,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>364</v>
       </c>
@@ -12265,7 +12288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>365</v>
       </c>
@@ -12288,7 +12311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>366</v>
       </c>
@@ -12311,7 +12334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>367</v>
       </c>
@@ -12334,7 +12357,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>368</v>
       </c>
@@ -12357,7 +12380,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>369</v>
       </c>
@@ -12380,7 +12403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>370</v>
       </c>
@@ -12403,7 +12426,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>371</v>
       </c>
@@ -12426,7 +12449,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>372</v>
       </c>
@@ -12449,7 +12472,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>373</v>
       </c>
@@ -12472,7 +12495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>374</v>
       </c>
@@ -12495,7 +12518,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>375</v>
       </c>
@@ -12518,7 +12541,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>376</v>
       </c>
@@ -12541,7 +12564,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>377</v>
       </c>
@@ -12564,7 +12587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>378</v>
       </c>
@@ -12587,7 +12610,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>379</v>
       </c>
@@ -12610,7 +12633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>380</v>
       </c>
@@ -12633,7 +12656,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>381</v>
       </c>
@@ -12656,7 +12679,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>382</v>
       </c>
@@ -12679,7 +12702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>383</v>
       </c>
@@ -12702,7 +12725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>384</v>
       </c>
@@ -12725,7 +12748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>385</v>
       </c>
@@ -12748,7 +12771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>386</v>
       </c>
@@ -12771,7 +12794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>387</v>
       </c>
@@ -12794,7 +12817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>388</v>
       </c>
@@ -12817,7 +12840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>389</v>
       </c>
@@ -12840,7 +12863,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>390</v>
       </c>
@@ -12863,7 +12886,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>391</v>
       </c>
@@ -12886,7 +12909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>392</v>
       </c>
@@ -12909,7 +12932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>393</v>
       </c>
@@ -12932,7 +12955,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>394</v>
       </c>
@@ -12955,7 +12978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>395</v>
       </c>
@@ -12978,7 +13001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>396</v>
       </c>
@@ -13001,7 +13024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>397</v>
       </c>
@@ -13024,7 +13047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>398</v>
       </c>
@@ -13047,7 +13070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>399</v>
       </c>
@@ -13070,7 +13093,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>400</v>
       </c>
@@ -13093,7 +13116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>401</v>
       </c>
@@ -13116,7 +13139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>402</v>
       </c>
@@ -13139,7 +13162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>403</v>
       </c>
@@ -13162,7 +13185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>404</v>
       </c>
@@ -13191,17 +13214,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C234"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16" width="13.7109375" customWidth="1"/>
+    <col min="1" max="16" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
@@ -13212,7 +13235,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -13223,7 +13246,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -13231,10 +13254,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -13245,7 +13268,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -13256,7 +13279,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -13267,7 +13290,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -13278,7 +13301,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -13289,7 +13312,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -13300,7 +13323,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -13311,7 +13334,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -13322,7 +13345,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -13333,7 +13356,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -13344,7 +13367,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -13352,10 +13375,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -13366,7 +13389,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -13377,7 +13400,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -13388,7 +13411,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -13399,7 +13422,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -13407,10 +13430,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -13421,7 +13444,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>24</v>
       </c>
@@ -13432,7 +13455,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>24</v>
       </c>
@@ -13443,7 +13466,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>25</v>
       </c>
@@ -13454,7 +13477,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>26</v>
       </c>
@@ -13465,7 +13488,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>26</v>
       </c>
@@ -13476,7 +13499,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>27</v>
       </c>
@@ -13487,7 +13510,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>28</v>
       </c>
@@ -13498,7 +13521,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>29</v>
       </c>
@@ -13509,7 +13532,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>36</v>
       </c>
@@ -13520,7 +13543,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>37</v>
       </c>
@@ -13531,7 +13554,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>37</v>
       </c>
@@ -13542,7 +13565,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>37</v>
       </c>
@@ -13553,7 +13576,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>37</v>
       </c>
@@ -13564,7 +13587,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>38</v>
       </c>
@@ -13575,7 +13598,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>39</v>
       </c>
@@ -13583,10 +13606,10 @@
         <v>37</v>
       </c>
       <c r="C35" s="2">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>39</v>
       </c>
@@ -13597,7 +13620,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>40</v>
       </c>
@@ -13608,7 +13631,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>40</v>
       </c>
@@ -13619,7 +13642,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>40</v>
       </c>
@@ -13630,7 +13653,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -13641,7 +13664,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -13652,7 +13675,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43</v>
       </c>
@@ -13663,7 +13686,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -13674,7 +13697,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>47</v>
       </c>
@@ -13685,7 +13708,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>49</v>
       </c>
@@ -13696,7 +13719,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>51</v>
       </c>
@@ -13704,10 +13727,10 @@
         <v>52</v>
       </c>
       <c r="C46" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>56</v>
       </c>
@@ -13718,7 +13741,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>58</v>
       </c>
@@ -13729,7 +13752,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>61</v>
       </c>
@@ -13740,7 +13763,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>67</v>
       </c>
@@ -13751,7 +13774,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>69</v>
       </c>
@@ -13762,7 +13785,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>69</v>
       </c>
@@ -13770,10 +13793,10 @@
         <v>73</v>
       </c>
       <c r="C52" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>70</v>
       </c>
@@ -13784,7 +13807,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>70</v>
       </c>
@@ -13795,7 +13818,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>71</v>
       </c>
@@ -13806,7 +13829,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>71</v>
       </c>
@@ -13817,7 +13840,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>72</v>
       </c>
@@ -13828,7 +13851,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>73</v>
       </c>
@@ -13839,7 +13862,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>74</v>
       </c>
@@ -13850,7 +13873,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>75</v>
       </c>
@@ -13861,7 +13884,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>83</v>
       </c>
@@ -13872,7 +13895,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>85</v>
       </c>
@@ -13883,7 +13906,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>98</v>
       </c>
@@ -13891,10 +13914,10 @@
         <v>99</v>
       </c>
       <c r="C63" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>98</v>
       </c>
@@ -13905,7 +13928,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>100</v>
       </c>
@@ -13916,7 +13939,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>101</v>
       </c>
@@ -13927,7 +13950,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>101</v>
       </c>
@@ -13938,7 +13961,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>102</v>
       </c>
@@ -13949,7 +13972,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>105</v>
       </c>
@@ -13960,7 +13983,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>106</v>
       </c>
@@ -13971,7 +13994,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>106</v>
       </c>
@@ -13982,7 +14005,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>106</v>
       </c>
@@ -13990,10 +14013,10 @@
         <v>290</v>
       </c>
       <c r="C72" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>107</v>
       </c>
@@ -14004,7 +14027,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>111</v>
       </c>
@@ -14015,7 +14038,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>112</v>
       </c>
@@ -14026,7 +14049,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>113</v>
       </c>
@@ -14037,7 +14060,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>114</v>
       </c>
@@ -14048,7 +14071,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>121</v>
       </c>
@@ -14059,7 +14082,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>122</v>
       </c>
@@ -14070,7 +14093,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>123</v>
       </c>
@@ -14081,7 +14104,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>126</v>
       </c>
@@ -14092,7 +14115,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>127</v>
       </c>
@@ -14103,7 +14126,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>127</v>
       </c>
@@ -14114,7 +14137,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>138</v>
       </c>
@@ -14125,7 +14148,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>140</v>
       </c>
@@ -14136,7 +14159,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>141</v>
       </c>
@@ -14147,7 +14170,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>145</v>
       </c>
@@ -14158,7 +14181,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>145</v>
       </c>
@@ -14169,7 +14192,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>145</v>
       </c>
@@ -14180,7 +14203,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>147</v>
       </c>
@@ -14191,7 +14214,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>147</v>
       </c>
@@ -14202,7 +14225,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>148</v>
       </c>
@@ -14213,7 +14236,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>148</v>
       </c>
@@ -14224,7 +14247,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>155</v>
       </c>
@@ -14235,7 +14258,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>155</v>
       </c>
@@ -14246,7 +14269,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>157</v>
       </c>
@@ -14257,7 +14280,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>161</v>
       </c>
@@ -14268,7 +14291,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>162</v>
       </c>
@@ -14279,7 +14302,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>164</v>
       </c>
@@ -14290,7 +14313,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>165</v>
       </c>
@@ -14301,7 +14324,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>165</v>
       </c>
@@ -14312,7 +14335,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>165</v>
       </c>
@@ -14323,7 +14346,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>170</v>
       </c>
@@ -14334,7 +14357,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>170</v>
       </c>
@@ -14345,7 +14368,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>171</v>
       </c>
@@ -14356,7 +14379,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>171</v>
       </c>
@@ -14367,7 +14390,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>172</v>
       </c>
@@ -14378,7 +14401,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>173</v>
       </c>
@@ -14389,7 +14412,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>176</v>
       </c>
@@ -14400,7 +14423,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>177</v>
       </c>
@@ -14411,7 +14434,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>178</v>
       </c>
@@ -14422,7 +14445,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>179</v>
       </c>
@@ -14433,7 +14456,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>179</v>
       </c>
@@ -14444,7 +14467,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>179</v>
       </c>
@@ -14455,7 +14478,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>180</v>
       </c>
@@ -14466,7 +14489,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>180</v>
       </c>
@@ -14477,7 +14500,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>181</v>
       </c>
@@ -14488,7 +14511,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>185</v>
       </c>
@@ -14499,7 +14522,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>186</v>
       </c>
@@ -14510,7 +14533,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>187</v>
       </c>
@@ -14518,10 +14541,10 @@
         <v>28</v>
       </c>
       <c r="C120" s="2">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>188</v>
       </c>
@@ -14532,7 +14555,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>189</v>
       </c>
@@ -14543,7 +14566,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>191</v>
       </c>
@@ -14554,7 +14577,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>194</v>
       </c>
@@ -14565,7 +14588,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>197</v>
       </c>
@@ -14576,7 +14599,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>198</v>
       </c>
@@ -14587,7 +14610,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>202</v>
       </c>
@@ -14598,7 +14621,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>203</v>
       </c>
@@ -14609,7 +14632,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>203</v>
       </c>
@@ -14620,7 +14643,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>205</v>
       </c>
@@ -14631,7 +14654,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>207</v>
       </c>
@@ -14642,7 +14665,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>207</v>
       </c>
@@ -14653,7 +14676,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>208</v>
       </c>
@@ -14664,7 +14687,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>209</v>
       </c>
@@ -14675,7 +14698,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>211</v>
       </c>
@@ -14686,7 +14709,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>213</v>
       </c>
@@ -14697,7 +14720,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>214</v>
       </c>
@@ -14708,7 +14731,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>214</v>
       </c>
@@ -14719,7 +14742,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>214</v>
       </c>
@@ -14730,7 +14753,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>215</v>
       </c>
@@ -14741,7 +14764,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>215</v>
       </c>
@@ -14752,7 +14775,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>215</v>
       </c>
@@ -14763,7 +14786,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>222</v>
       </c>
@@ -14771,10 +14794,10 @@
         <v>237</v>
       </c>
       <c r="C143" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>224</v>
       </c>
@@ -14785,7 +14808,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>224</v>
       </c>
@@ -14796,7 +14819,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>224</v>
       </c>
@@ -14807,7 +14830,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>226</v>
       </c>
@@ -14818,7 +14841,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>230</v>
       </c>
@@ -14826,10 +14849,10 @@
         <v>37</v>
       </c>
       <c r="C148" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>231</v>
       </c>
@@ -14840,7 +14863,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>231</v>
       </c>
@@ -14851,7 +14874,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>232</v>
       </c>
@@ -14862,7 +14885,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>234</v>
       </c>
@@ -14873,7 +14896,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>234</v>
       </c>
@@ -14884,7 +14907,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>235</v>
       </c>
@@ -14895,7 +14918,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>236</v>
       </c>
@@ -14906,7 +14929,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>247</v>
       </c>
@@ -14917,7 +14940,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>247</v>
       </c>
@@ -14928,7 +14951,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>247</v>
       </c>
@@ -14939,7 +14962,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>248</v>
       </c>
@@ -14950,7 +14973,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>248</v>
       </c>
@@ -14961,7 +14984,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>252</v>
       </c>
@@ -14972,7 +14995,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>252</v>
       </c>
@@ -14983,7 +15006,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>255</v>
       </c>
@@ -14994,7 +15017,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>256</v>
       </c>
@@ -15005,7 +15028,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>258</v>
       </c>
@@ -15016,7 +15039,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>259</v>
       </c>
@@ -15027,7 +15050,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>259</v>
       </c>
@@ -15035,10 +15058,10 @@
         <v>284</v>
       </c>
       <c r="C167" s="2">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>259</v>
       </c>
@@ -15049,7 +15072,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>262</v>
       </c>
@@ -15060,7 +15083,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>265</v>
       </c>
@@ -15068,10 +15091,10 @@
         <v>273</v>
       </c>
       <c r="C170" s="2">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>271</v>
       </c>
@@ -15082,7 +15105,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>272</v>
       </c>
@@ -15090,10 +15113,10 @@
         <v>265</v>
       </c>
       <c r="C172" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>272</v>
       </c>
@@ -15104,7 +15127,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>273</v>
       </c>
@@ -15115,7 +15138,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>274</v>
       </c>
@@ -15123,10 +15146,10 @@
         <v>263</v>
       </c>
       <c r="C175" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>274</v>
       </c>
@@ -15137,7 +15160,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>277</v>
       </c>
@@ -15148,7 +15171,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>278</v>
       </c>
@@ -15159,7 +15182,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>280</v>
       </c>
@@ -15170,7 +15193,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>280</v>
       </c>
@@ -15181,7 +15204,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>281</v>
       </c>
@@ -15192,7 +15215,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>282</v>
       </c>
@@ -15203,7 +15226,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>284</v>
       </c>
@@ -15214,7 +15237,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>286</v>
       </c>
@@ -15225,7 +15248,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>286</v>
       </c>
@@ -15236,7 +15259,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>287</v>
       </c>
@@ -15247,7 +15270,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>287</v>
       </c>
@@ -15258,7 +15281,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>288</v>
       </c>
@@ -15269,7 +15292,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>289</v>
       </c>
@@ -15280,7 +15303,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>290</v>
       </c>
@@ -15288,10 +15311,10 @@
         <v>277</v>
       </c>
       <c r="C190" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>292</v>
       </c>
@@ -15302,7 +15325,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>292</v>
       </c>
@@ -15313,7 +15336,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>292</v>
       </c>
@@ -15324,7 +15347,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>296</v>
       </c>
@@ -15335,7 +15358,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>296</v>
       </c>
@@ -15343,10 +15366,10 @@
         <v>289</v>
       </c>
       <c r="C195" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>302</v>
       </c>
@@ -15357,7 +15380,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>308</v>
       </c>
@@ -15368,7 +15391,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>311</v>
       </c>
@@ -15379,7 +15402,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>328</v>
       </c>
@@ -15390,7 +15413,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>330</v>
       </c>
@@ -15401,7 +15424,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>330</v>
       </c>
@@ -15412,7 +15435,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>332</v>
       </c>
@@ -15423,7 +15446,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>332</v>
       </c>
@@ -15434,7 +15457,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>332</v>
       </c>
@@ -15445,7 +15468,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>333</v>
       </c>
@@ -15456,7 +15479,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>339</v>
       </c>
@@ -15464,10 +15487,10 @@
         <v>341</v>
       </c>
       <c r="C206" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>339</v>
       </c>
@@ -15478,7 +15501,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>340</v>
       </c>
@@ -15489,7 +15512,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>340</v>
       </c>
@@ -15500,7 +15523,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>341</v>
       </c>
@@ -15511,7 +15534,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>344</v>
       </c>
@@ -15522,7 +15545,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>346</v>
       </c>
@@ -15530,10 +15553,10 @@
         <v>359</v>
       </c>
       <c r="C212" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>347</v>
       </c>
@@ -15544,7 +15567,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>352</v>
       </c>
@@ -15555,7 +15578,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>353</v>
       </c>
@@ -15566,7 +15589,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>353</v>
       </c>
@@ -15577,7 +15600,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>356</v>
       </c>
@@ -15588,7 +15611,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>357</v>
       </c>
@@ -15599,7 +15622,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>359</v>
       </c>
@@ -15610,7 +15633,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>359</v>
       </c>
@@ -15621,7 +15644,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>360</v>
       </c>
@@ -15629,10 +15652,10 @@
         <v>332</v>
       </c>
       <c r="C221" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>360</v>
       </c>
@@ -15643,7 +15666,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>360</v>
       </c>
@@ -15654,7 +15677,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>366</v>
       </c>
@@ -15665,7 +15688,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>366</v>
       </c>
@@ -15676,7 +15699,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>366</v>
       </c>
@@ -15687,7 +15710,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>366</v>
       </c>
@@ -15695,10 +15718,10 @@
         <v>367</v>
       </c>
       <c r="C227" s="2">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>368</v>
       </c>
@@ -15709,7 +15732,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>368</v>
       </c>
@@ -15720,7 +15743,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>372</v>
       </c>
@@ -15731,7 +15754,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>373</v>
       </c>
@@ -15742,7 +15765,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>384</v>
       </c>
@@ -15753,7 +15776,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>387</v>
       </c>
@@ -15764,7 +15787,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>401</v>
       </c>
